--- a/biology/Zoologie/Euphlyctis_cyanophlyctis/Euphlyctis_cyanophlyctis.xlsx
+++ b/biology/Zoologie/Euphlyctis_cyanophlyctis/Euphlyctis_cyanophlyctis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphlyctis cyanophlyctis est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphlyctis cyanophlyctis est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud-est de l'Iran, dans le sud de l'Afghanistan, au Pakistan, en Inde, au Sri Lanka, au Népal, au Bangladesh, dans l'ouest de la Bangladesh et au Viêt Nam du niveau de la mer jusqu'à 2 500 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud-est de l'Iran, dans le sud de l'Afghanistan, au Pakistan, en Inde, au Sri Lanka, au Népal, au Bangladesh, dans l'ouest de la Bangladesh et au Viêt Nam du niveau de la mer jusqu'à 2 500 m d'altitude,.
 Sa présence incertaine au Bhoutan et en Thaïlande.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grenouille aquatique a une taille variant de 4 à 6,5 cm.
-Elle est célèbre car elle a la capacité de ricocher à la surface de l'eau[3].
+Elle est célèbre car elle a la capacité de ricocher à la surface de l'eau.
 Euphlyctis cyanophlyctis présente un dos de couleur grise, olivâtre ou brun clair (parfois noir) avec des taches noires irrégulières. 
 Ses pattes arrière sont sombres et sont rayées d'une ou deux bandes jaunes ou blanches. 
 Son ventre est blanc uniforme ou présentant une réticulation foncée. 
-Les sacs vocaux sont de brun clair[4].
+Les sacs vocaux sont de brun clair.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schneider, 1799 : Historiae amphibiorum naturalis et literariae fasciculus primus, vol. 1 (texte intégral).</t>
         </is>
